--- a/auca/sem-1/acct-8112-ancounting/assignments/Assignment solution/E5-16-25.xlsx
+++ b/auca/sem-1/acct-8112-ancounting/assignments/Assignment solution/E5-16-25.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21930" windowHeight="12450" activeTab="1"/>
+    <workbookView windowWidth="27960" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="E5-16" sheetId="1" r:id="rId1"/>
     <sheet name="E5-21" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>Sales</t>
   </si>
@@ -228,6 +229,15 @@
   </si>
   <si>
     <t>Blitzes Net Income is 71400</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Acc Receivable</t>
   </si>
 </sst>
 </file>
@@ -235,19 +245,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,22 +291,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,8 +327,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -348,39 +418,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,57 +433,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -467,192 +462,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -661,41 +656,65 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -706,14 +725,25 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -724,19 +754,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -747,11 +764,44 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -761,19 +811,21 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -797,19 +849,97 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -818,21 +948,10 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -852,11 +971,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,32 +1010,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -915,7 +1023,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,244 +1042,338 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1495,8 +1697,8 @@
   <sheetPr/>
   <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1505,25 +1707,25 @@
     <col min="3" max="3" width="9.1" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="11.4" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="11.4" customWidth="1"/>
+    <col min="9" max="9" width="7.6" customWidth="1"/>
+    <col min="11" max="11" width="5.8" customWidth="1"/>
+    <col min="12" max="12" width="6.1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="51" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1540,7 +1742,7 @@
       <c r="E3">
         <v>60200</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="52">
         <f>D3-E3</f>
         <v>27740</v>
       </c>
@@ -1549,14 +1751,14 @@
       <c r="B4">
         <v>103600</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="52">
         <f>B4-D4</f>
         <v>4380</v>
       </c>
       <c r="D4">
         <v>99220</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="52">
         <f>D4-F4</f>
         <v>65200</v>
       </c>
@@ -1578,20 +1780,20 @@
       <c r="E5">
         <v>40500</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="52">
         <f>D5-E5</f>
         <v>23700</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="25">
+      <c r="B6" s="52">
         <f>D6+C6</f>
         <v>115500</v>
       </c>
       <c r="C6">
         <v>2980</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="52">
         <f>F6+E6</f>
         <v>112520</v>
       </c>
@@ -1602,38 +1804,37 @@
         <v>36720</v>
       </c>
     </row>
-    <row r="9" ht="15.75"/>
-    <row r="10" spans="1:6">
-      <c r="A10" s="25"/>
-      <c r="C10" s="26" t="s">
+    <row r="10" ht="15.75" spans="1:6">
+      <c r="A10" s="52"/>
+      <c r="C10" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="63"/>
     </row>
     <row r="11" spans="3:6">
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="37"/>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="30" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="64"/>
+    </row>
+    <row r="12" ht="15.75" spans="3:6">
+      <c r="C12" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="65" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="32">
+      <c r="C13" s="59">
         <v>45691</v>
       </c>
       <c r="D13" t="s">
@@ -1642,23 +1843,23 @@
       <c r="E13">
         <v>2700</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="33"/>
+      <c r="C14" s="60"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="66">
         <v>2700</v>
       </c>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="33"/>
-      <c r="F15" s="39"/>
+      <c r="C15" s="60"/>
+      <c r="F15" s="66"/>
     </row>
     <row r="16" spans="3:6">
-      <c r="C16" s="32">
+      <c r="C16" s="59">
         <v>45695</v>
       </c>
       <c r="D16" t="s">
@@ -1667,48 +1868,48 @@
       <c r="E16">
         <v>400</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="33"/>
+      <c r="C17" s="60"/>
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="66">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="33"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="60"/>
+      <c r="F18" s="66"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="32">
+      <c r="C19" s="59">
         <v>45697</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19">
-        <v>300</v>
-      </c>
-      <c r="F19" s="39"/>
+        <v>110</v>
+      </c>
+      <c r="F19" s="66"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="33"/>
+      <c r="C20" s="60"/>
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="39">
-        <v>300</v>
+      <c r="F20" s="66">
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="33"/>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="32">
+      <c r="C21" s="60"/>
+      <c r="F21" s="66"/>
+    </row>
+    <row r="22" ht="15.75" spans="3:6">
+      <c r="C22" s="59">
         <v>45698</v>
       </c>
       <c r="D22" t="s">
@@ -1717,23 +1918,23 @@
       <c r="E22">
         <v>4350</v>
       </c>
-      <c r="F22" s="39"/>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="33"/>
+      <c r="F22" s="66"/>
+    </row>
+    <row r="23" ht="15.75" spans="3:6">
+      <c r="C23" s="60"/>
       <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="66">
         <v>4350</v>
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="33"/>
-      <c r="F24" s="39"/>
+      <c r="C24" s="60"/>
+      <c r="F24" s="66"/>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="32">
+      <c r="C25" s="59">
         <v>45698</v>
       </c>
       <c r="D25" t="s">
@@ -1742,14 +1943,14 @@
       <c r="E25">
         <v>2300</v>
       </c>
-      <c r="F25" s="39"/>
+      <c r="F25" s="66"/>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="33"/>
+      <c r="C26" s="60"/>
       <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="66">
         <v>2300</v>
       </c>
     </row>
@@ -1757,11 +1958,11 @@
       <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="F27" s="39"/>
+      <c r="C27" s="60"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="32">
+      <c r="C28" s="59">
         <v>45700</v>
       </c>
       <c r="D28" t="s">
@@ -1771,10 +1972,10 @@
         <f>(2700-400)</f>
         <v>2300</v>
       </c>
-      <c r="F28" s="39"/>
-    </row>
-    <row r="29" spans="3:6">
-      <c r="C29" s="33"/>
+      <c r="F28" s="66"/>
+    </row>
+    <row r="29" ht="15.75" spans="3:6">
+      <c r="C29" s="60"/>
       <c r="D29" t="s">
         <v>20</v>
       </c>
@@ -1784,21 +1985,21 @@
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="33"/>
+      <c r="C30" s="60"/>
       <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="66">
         <f>(2700-400)*0.96</f>
         <v>2208</v>
       </c>
     </row>
-    <row r="31" spans="3:6">
-      <c r="C31" s="33"/>
-      <c r="F31" s="39"/>
-    </row>
-    <row r="32" spans="3:6">
-      <c r="C32" s="32">
+    <row r="31" ht="15.75" spans="3:6">
+      <c r="C31" s="60"/>
+      <c r="F31" s="66"/>
+    </row>
+    <row r="32" ht="15.75" spans="3:6">
+      <c r="C32" s="59">
         <v>45704</v>
       </c>
       <c r="D32" t="s">
@@ -1807,23 +2008,23 @@
       <c r="E32">
         <v>500</v>
       </c>
-      <c r="F32" s="39"/>
-    </row>
-    <row r="33" spans="3:6">
-      <c r="C33" s="33"/>
+      <c r="F32" s="66"/>
+    </row>
+    <row r="33" ht="15.75" spans="3:6">
+      <c r="C33" s="60"/>
       <c r="D33" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="66">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="3:6">
-      <c r="C34" s="33"/>
-      <c r="F34" s="39"/>
+    <row r="34" ht="15.75" spans="3:6">
+      <c r="C34" s="60"/>
+      <c r="F34" s="66"/>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="32">
+      <c r="C35" s="59">
         <v>45711</v>
       </c>
       <c r="D35" t="s">
@@ -1833,10 +2034,10 @@
         <f>(4350-500)*0.98</f>
         <v>3773</v>
       </c>
-      <c r="F35" s="39"/>
+      <c r="F35" s="66"/>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="33"/>
+      <c r="C36" s="60"/>
       <c r="D36" t="s">
         <v>25</v>
       </c>
@@ -1844,15 +2045,15 @@
         <f>(4350-500)*0.02</f>
         <v>77</v>
       </c>
-      <c r="F36" s="39"/>
+      <c r="F36" s="66"/>
     </row>
     <row r="37" ht="15.75" spans="3:6">
-      <c r="C37" s="34"/>
-      <c r="D37" s="35" t="s">
+      <c r="C37" s="61"/>
+      <c r="D37" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="40">
+      <c r="E37" s="62"/>
+      <c r="F37" s="67">
         <f>(4350-500)</f>
         <v>3850</v>
       </c>
@@ -1871,751 +2072,718 @@
   <sheetPr/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.78" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1066666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8866666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.78" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="20.6666666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.22" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="22.78" style="29" customWidth="1"/>
+    <col min="2" max="2" width="12.1066666666667" style="29" customWidth="1"/>
+    <col min="3" max="3" width="10.6666666666667" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.8866666666667" style="29" customWidth="1"/>
+    <col min="5" max="5" width="11.44" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.78" style="29" customWidth="1"/>
+    <col min="7" max="7" width="10.6666666666667" style="29" customWidth="1"/>
+    <col min="8" max="14" width="9" style="29"/>
+    <col min="15" max="15" width="20.6666666666667" style="29" customWidth="1"/>
+    <col min="16" max="16" width="9.22" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="29" customFormat="1" spans="1:11">
+      <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" s="29" customFormat="1" spans="1:11">
+      <c r="A2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" s="29" customFormat="1" spans="1:11">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:17">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="29" customFormat="1" spans="1:17">
+      <c r="A4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="32">
         <v>2400</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="13" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="N4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
-      <c r="A5" s="4" t="s">
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+    </row>
+    <row r="5" s="29" customFormat="1" spans="1:17">
+      <c r="A5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="32">
         <v>8900</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5">
+      <c r="C5" s="32"/>
+      <c r="D5" s="33">
         <v>2500</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:17">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+    </row>
+    <row r="6" s="29" customFormat="1" spans="1:17">
+      <c r="A6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="32">
         <v>36500</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8">
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="36">
         <v>4800</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="3" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="N6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:17">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="29" customFormat="1" spans="1:17">
+      <c r="A7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="32">
         <v>13700</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8">
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="36">
         <v>7300</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="14" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="N7" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="4" t="str">
+      <c r="O7" s="32" t="str">
         <f>A15</f>
         <v>Sales revenue</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="32">
         <f>I15</f>
         <v>234500</v>
       </c>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:17">
-      <c r="A8" s="4" t="s">
+      <c r="Q7" s="32"/>
+    </row>
+    <row r="8" s="29" customFormat="1" spans="1:17">
+      <c r="A8" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="32">
         <v>42500</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15">
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42">
         <f>P7</f>
         <v>234500</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:17">
-      <c r="A9" s="4" t="s">
+    <row r="9" s="29" customFormat="1" spans="1:17">
+      <c r="A9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32">
         <v>11600</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8">
+      <c r="D9" s="33"/>
+      <c r="E9" s="36">
         <v>2300</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="16" t="s">
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="N9" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="44">
         <f>SUM(Q10:Q14)</f>
         <v>163100</v>
       </c>
-      <c r="Q9" s="17"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:17">
-      <c r="A10" s="4" t="s">
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" s="29" customFormat="1" spans="1:17">
+      <c r="A10" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32">
         <v>9200</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="18" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="22">
+      <c r="P10" s="45"/>
+      <c r="Q10" s="49">
         <v>2500</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:17">
-      <c r="A11" s="4" t="s">
+    <row r="11" s="29" customFormat="1" spans="1:17">
+      <c r="A11" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="36">
         <v>1000</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="18" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="22">
+      <c r="P11" s="45"/>
+      <c r="Q11" s="49">
         <v>116300</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:17">
-      <c r="A12" s="4" t="s">
+    <row r="12" s="29" customFormat="1" spans="1:17">
+      <c r="A12" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32">
         <v>7900</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="18" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="22">
+      <c r="P12" s="45"/>
+      <c r="Q12" s="49">
         <v>27200</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:17">
-      <c r="A13" s="4" t="s">
+    <row r="13" s="29" customFormat="1" spans="1:17">
+      <c r="A13" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32">
         <v>34000</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="18" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="22">
+      <c r="P13" s="45"/>
+      <c r="Q13" s="49">
         <v>14800</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:17">
-      <c r="A14" s="4" t="s">
+    <row r="14" s="29" customFormat="1" spans="1:17">
+      <c r="A14" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="32">
         <v>43000</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10">
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38">
         <f>B14</f>
         <v>43000</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="10">
+      <c r="G14" s="38"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="38">
         <f>F14</f>
         <v>43000</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="19" t="s">
+      <c r="K14" s="38"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="23">
+      <c r="P14" s="46"/>
+      <c r="Q14" s="50">
         <v>2300</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:17">
-      <c r="A15" s="4" t="s">
+    <row r="15" s="29" customFormat="1" spans="1:17">
+      <c r="A15" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32">
         <v>232000</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8">
+      <c r="D15" s="33"/>
+      <c r="E15" s="36">
         <v>2500</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11">
+      <c r="F15" s="39"/>
+      <c r="G15" s="39">
         <f>E15+C15</f>
         <v>234500</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11">
+      <c r="H15" s="39"/>
+      <c r="I15" s="39">
         <f>G15</f>
         <v>234500</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="20" t="s">
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="N15" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="32">
         <v>71400</v>
       </c>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:17">
-      <c r="A16" s="4" t="s">
+      <c r="Q15" s="32"/>
+    </row>
+    <row r="16" s="29" customFormat="1" spans="1:17">
+      <c r="A16" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="32">
         <v>2500</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="11">
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="39">
         <f>B16</f>
         <v>2500</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
+      <c r="G16" s="39"/>
+      <c r="H16" s="39">
         <f t="shared" ref="H16:H18" si="0">F16</f>
         <v>2500</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="4" t="s">
+      <c r="I16" s="39"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4">
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32">
         <v>71400</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:17">
-      <c r="A17" s="4" t="s">
+    <row r="17" s="29" customFormat="1" spans="1:17">
+      <c r="A17" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="32">
         <v>111500</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5">
+      <c r="C17" s="32"/>
+      <c r="D17" s="33">
         <v>4800</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="11">
+      <c r="E17" s="36"/>
+      <c r="F17" s="39">
         <f>B17+D17</f>
         <v>116300</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
+      <c r="G17" s="39"/>
+      <c r="H17" s="39">
         <f t="shared" si="0"/>
         <v>116300</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="14" t="s">
+      <c r="I17" s="39"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="N17" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="32">
         <v>43000</v>
       </c>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:17">
-      <c r="A18" s="4" t="s">
+      <c r="Q17" s="32"/>
+    </row>
+    <row r="18" s="29" customFormat="1" spans="1:17">
+      <c r="A18" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="32">
         <v>21100</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5">
+      <c r="C18" s="32"/>
+      <c r="D18" s="33">
         <v>5100</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="11">
+      <c r="E18" s="36"/>
+      <c r="F18" s="39">
         <f>B18+D18+D19</f>
         <v>27200</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="G18" s="39"/>
+      <c r="H18" s="39">
         <f t="shared" si="0"/>
         <v>27200</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="4" t="s">
+      <c r="I18" s="39"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4">
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32">
         <v>43000</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:17">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5">
+    <row r="19" s="29" customFormat="1" spans="1:17">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33">
         <v>1000</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="3" t="s">
+      <c r="E19" s="36"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="O19" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="31">
         <f>SUM(P7:P18)</f>
         <v>512000</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="31">
         <f>SUM(Q7:Q18)</f>
         <v>512000</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:11">
-      <c r="A20" s="4" t="s">
+    <row r="20" s="29" customFormat="1" spans="1:11">
+      <c r="A20" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="32">
         <v>10300</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5">
+      <c r="C20" s="32"/>
+      <c r="D20" s="33">
         <v>2200</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="11">
+      <c r="E20" s="36"/>
+      <c r="F20" s="39">
         <f>B20+D20+D21</f>
         <v>14800</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
+      <c r="G20" s="39"/>
+      <c r="H20" s="39">
         <f>F20</f>
         <v>14800</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:11">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5">
+      <c r="I20" s="39"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" s="29" customFormat="1" spans="1:11">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33">
         <v>2300</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:11">
-      <c r="A22" s="4" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" s="29" customFormat="1" spans="1:11">
+      <c r="A22" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="32">
         <v>2300</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="11">
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="39">
         <f>B22</f>
         <v>2300</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11">
+      <c r="G22" s="39"/>
+      <c r="H22" s="39">
         <f>F22</f>
         <v>2300</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:11">
-      <c r="A23" s="3" t="s">
+      <c r="I22" s="39"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+    </row>
+    <row r="23" s="29" customFormat="1" spans="1:11">
+      <c r="A23" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="31">
         <f t="shared" ref="B23:K23" si="1">SUM(B4:B22)</f>
         <v>294700</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="31">
         <f t="shared" si="1"/>
         <v>294700</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="34">
         <f t="shared" si="1"/>
         <v>17900</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="34">
         <f t="shared" si="1"/>
         <v>17900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="31">
         <f t="shared" si="1"/>
         <v>206100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="31">
         <f t="shared" si="1"/>
         <v>234500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="31">
         <f t="shared" si="1"/>
         <v>163100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="31">
         <f t="shared" si="1"/>
         <v>234500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="31">
         <f t="shared" si="1"/>
         <v>43000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:11">
-      <c r="A24" s="2" t="s">
+    <row r="24" s="29" customFormat="1" spans="1:11">
+      <c r="A24" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31">
         <f>I23-H23</f>
         <v>71400</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3">
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31">
         <f>J23-K23</f>
         <v>43000</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:11">
-      <c r="A25" s="2" t="s">
+    <row r="25" s="29" customFormat="1" spans="1:11">
+      <c r="A25" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31">
         <f t="shared" ref="H25:K25" si="2">SUM(I23:I24)</f>
         <v>234500</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="31">
         <f t="shared" si="2"/>
         <v>43000</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="31">
         <f t="shared" si="2"/>
         <v>43000</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="16:16">
-      <c r="P27" s="1" t="s">
+    <row r="27" s="29" customFormat="1" spans="16:16">
+      <c r="P27" s="29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:1">
-      <c r="A28" s="7" t="s">
+    <row r="28" s="29" customFormat="1" spans="1:1">
+      <c r="A28" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="13:13">
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="29" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2639,4 +2807,286 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" ht="15.75"/>
+    <row r="2" ht="15.75" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" ht="15.75" spans="2:8">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="7">
+        <v>45691</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2700</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="F4" s="21">
+        <v>45698</v>
+      </c>
+      <c r="G4">
+        <v>2300</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="10">
+        <v>45695</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12">
+        <v>400</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="10">
+        <v>45697</v>
+      </c>
+      <c r="C6" s="11">
+        <v>110</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="F6" s="21"/>
+      <c r="G6"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="10">
+        <v>45698</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12">
+        <v>2300</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" ht="15.75" spans="2:8">
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="F8" s="22"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" ht="15.75" spans="2:8">
+      <c r="B9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" ref="C9:G9" si="0">SUM(C4:C7)</f>
+        <v>2810</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" ht="15.75" spans="2:8">
+      <c r="B10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="18">
+        <f>C9-D9</f>
+        <v>110</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="F10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="28">
+        <v>2300</v>
+      </c>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" ht="15.75"/>
+    <row r="12" ht="15.75" spans="2:8">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" ht="15.75" spans="2:8">
+      <c r="B13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="21">
+        <v>45691</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" s="12">
+        <v>2700</v>
+      </c>
+      <c r="F14" s="7">
+        <v>45698</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4350</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="21">
+        <v>45695</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="F15" s="10">
+        <v>45704</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="21"/>
+      <c r="C16"/>
+      <c r="D16" s="12"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="21"/>
+      <c r="D17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" ht="15.75" spans="2:8">
+      <c r="B18" s="22"/>
+      <c r="D18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" ht="15.75" spans="2:8">
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="23">
+        <f t="shared" ref="C19:H19" si="1">SUM(C14:C17)</f>
+        <v>400</v>
+      </c>
+      <c r="D19" s="24">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" si="1"/>
+        <v>4350</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="2:8">
+      <c r="B20" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="19">
+        <f>D19-C19</f>
+        <v>2300</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="18">
+        <f>G19-H19</f>
+        <v>3850</v>
+      </c>
+      <c r="H20" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/auca/sem-1/acct-8112-ancounting/assignments/Assignment solution/E5-16-25.xlsx
+++ b/auca/sem-1/acct-8112-ancounting/assignments/Assignment solution/E5-16-25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="12450" activeTab="2"/>
+    <workbookView windowWidth="21930" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="E5-16" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>Sales</t>
   </si>
@@ -150,21 +150,24 @@
     <t xml:space="preserve">        Income summary</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Income summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Sales discount</t>
+  </si>
+  <si>
     <t>Accumulated Depreciation</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Income summary</t>
+    <t>c</t>
   </si>
   <si>
     <t>Accounts Payable</t>
   </si>
   <si>
-    <t xml:space="preserve">        Sales discounts</t>
-  </si>
-  <si>
     <t>Salary Payable</t>
   </si>
   <si>
@@ -192,7 +195,7 @@
     <t>Sales revenue</t>
   </si>
   <si>
-    <t>c</t>
+    <t>d</t>
   </si>
   <si>
     <t>Sales discounts</t>
@@ -204,7 +207,7 @@
     <t>Cost of goods sold</t>
   </si>
   <si>
-    <t>d</t>
+    <t>e</t>
   </si>
   <si>
     <t>Selling expense</t>
@@ -245,9 +248,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -314,14 +317,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,7 +339,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,7 +347,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,15 +362,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,13 +377,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,7 +391,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -418,28 +429,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -468,6 +471,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -480,174 +573,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -890,6 +893,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -897,6 +911,15 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -953,6 +976,56 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -971,54 +1044,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1045,11 +1070,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,139 +1081,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1203,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,13 +1299,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
@@ -1311,30 +1328,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,12 +1374,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1369,9 +1388,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1713,19 +1729,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1742,7 +1758,7 @@
       <c r="E3">
         <v>60200</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="54">
         <f>D3-E3</f>
         <v>27740</v>
       </c>
@@ -1751,14 +1767,14 @@
       <c r="B4">
         <v>103600</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="54">
         <f>B4-D4</f>
         <v>4380</v>
       </c>
       <c r="D4">
         <v>99220</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="54">
         <f>D4-F4</f>
         <v>65200</v>
       </c>
@@ -1780,20 +1796,20 @@
       <c r="E5">
         <v>40500</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="54">
         <f>D5-E5</f>
         <v>23700</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="52">
+      <c r="B6" s="54">
         <f>D6+C6</f>
         <v>115500</v>
       </c>
       <c r="C6">
         <v>2980</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="54">
         <f>F6+E6</f>
         <v>112520</v>
       </c>
@@ -1804,29 +1820,30 @@
         <v>36720</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:6">
-      <c r="A10" s="52"/>
-      <c r="C10" s="53" t="s">
+    <row r="9" ht="15.75"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="54"/>
+      <c r="C10" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="63"/>
     </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+    <row r="11" ht="15.75" spans="3:6">
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="64"/>
     </row>
-    <row r="12" ht="15.75" spans="3:6">
-      <c r="C12" s="57" t="s">
+    <row r="12" spans="3:6">
+      <c r="C12" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="60" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="65" t="s">
@@ -1834,7 +1851,7 @@
       </c>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="59">
+      <c r="C13" s="21">
         <v>45691</v>
       </c>
       <c r="D13" t="s">
@@ -1843,23 +1860,23 @@
       <c r="E13">
         <v>2700</v>
       </c>
-      <c r="F13" s="66"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="60"/>
+      <c r="C14" s="22"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="12">
         <v>2700</v>
       </c>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="60"/>
-      <c r="F15" s="66"/>
+      <c r="C15" s="22"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="3:6">
-      <c r="C16" s="59">
+      <c r="C16" s="21">
         <v>45695</v>
       </c>
       <c r="D16" t="s">
@@ -1868,23 +1885,23 @@
       <c r="E16">
         <v>400</v>
       </c>
-      <c r="F16" s="66"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="60"/>
+      <c r="C17" s="22"/>
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="12">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="60"/>
-      <c r="F18" s="66"/>
+      <c r="C18" s="22"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="59">
+      <c r="C19" s="21">
         <v>45697</v>
       </c>
       <c r="D19" t="s">
@@ -1893,23 +1910,23 @@
       <c r="E19">
         <v>110</v>
       </c>
-      <c r="F19" s="66"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="60"/>
+      <c r="C20" s="22"/>
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="12">
         <v>110</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="60"/>
-      <c r="F21" s="66"/>
-    </row>
-    <row r="22" ht="15.75" spans="3:6">
-      <c r="C22" s="59">
+      <c r="C21" s="22"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="21">
         <v>45698</v>
       </c>
       <c r="D22" t="s">
@@ -1918,23 +1935,23 @@
       <c r="E22">
         <v>4350</v>
       </c>
-      <c r="F22" s="66"/>
-    </row>
-    <row r="23" ht="15.75" spans="3:6">
-      <c r="C23" s="60"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="22"/>
       <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="12">
         <v>4350</v>
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="60"/>
-      <c r="F24" s="66"/>
+      <c r="C24" s="22"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="59">
+      <c r="C25" s="21">
         <v>45698</v>
       </c>
       <c r="D25" t="s">
@@ -1943,14 +1960,14 @@
       <c r="E25">
         <v>2300</v>
       </c>
-      <c r="F25" s="66"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="60"/>
+      <c r="C26" s="22"/>
       <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="12">
         <v>2300</v>
       </c>
     </row>
@@ -1958,11 +1975,11 @@
       <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="F27" s="66"/>
+      <c r="C27" s="22"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="59">
+      <c r="C28" s="21">
         <v>45700</v>
       </c>
       <c r="D28" t="s">
@@ -1972,10 +1989,10 @@
         <f>(2700-400)</f>
         <v>2300</v>
       </c>
-      <c r="F28" s="66"/>
-    </row>
-    <row r="29" ht="15.75" spans="3:6">
-      <c r="C29" s="60"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="22"/>
       <c r="D29" t="s">
         <v>20</v>
       </c>
@@ -1985,21 +2002,21 @@
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="60"/>
+      <c r="C30" s="22"/>
       <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="66">
+      <c r="F30" s="12">
         <f>(2700-400)*0.96</f>
         <v>2208</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="3:6">
-      <c r="C31" s="60"/>
-      <c r="F31" s="66"/>
-    </row>
-    <row r="32" ht="15.75" spans="3:6">
-      <c r="C32" s="59">
+    <row r="31" spans="3:6">
+      <c r="C31" s="22"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="21">
         <v>45704</v>
       </c>
       <c r="D32" t="s">
@@ -2008,23 +2025,23 @@
       <c r="E32">
         <v>500</v>
       </c>
-      <c r="F32" s="66"/>
-    </row>
-    <row r="33" ht="15.75" spans="3:6">
-      <c r="C33" s="60"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="22"/>
       <c r="D33" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="66">
+      <c r="F33" s="12">
         <v>500</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="3:6">
-      <c r="C34" s="60"/>
-      <c r="F34" s="66"/>
+    <row r="34" spans="3:6">
+      <c r="C34" s="22"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="59">
+      <c r="C35" s="21">
         <v>45711</v>
       </c>
       <c r="D35" t="s">
@@ -2034,10 +2051,10 @@
         <f>(4350-500)*0.98</f>
         <v>3773</v>
       </c>
-      <c r="F35" s="66"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="60"/>
+      <c r="C36" s="22"/>
       <c r="D36" t="s">
         <v>25</v>
       </c>
@@ -2045,7 +2062,7 @@
         <f>(4350-500)*0.02</f>
         <v>77</v>
       </c>
-      <c r="F36" s="66"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" ht="15.75" spans="3:6">
       <c r="C37" s="61"/>
@@ -2053,7 +2070,7 @@
         <v>23</v>
       </c>
       <c r="E37" s="62"/>
-      <c r="F37" s="67">
+      <c r="F37" s="66">
         <f>(4350-500)</f>
         <v>3850</v>
       </c>
@@ -2070,738 +2087,779 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.78" style="29" customWidth="1"/>
-    <col min="2" max="2" width="12.1066666666667" style="29" customWidth="1"/>
-    <col min="3" max="3" width="10.6666666666667" style="29" customWidth="1"/>
-    <col min="4" max="4" width="11.8866666666667" style="29" customWidth="1"/>
-    <col min="5" max="5" width="11.44" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.78" style="29" customWidth="1"/>
-    <col min="7" max="7" width="10.6666666666667" style="29" customWidth="1"/>
-    <col min="8" max="14" width="9" style="29"/>
-    <col min="15" max="15" width="20.6666666666667" style="29" customWidth="1"/>
-    <col min="16" max="16" width="9.22" style="29" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="25.9" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12.1066666666667" style="27" customWidth="1"/>
+    <col min="3" max="3" width="10.6666666666667" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11.8866666666667" style="27" customWidth="1"/>
+    <col min="5" max="5" width="11.44" style="27" customWidth="1"/>
+    <col min="6" max="6" width="10.78" style="27" customWidth="1"/>
+    <col min="7" max="7" width="10.6666666666667" style="27" customWidth="1"/>
+    <col min="8" max="14" width="9" style="27"/>
+    <col min="15" max="15" width="20.6666666666667" style="27" customWidth="1"/>
+    <col min="16" max="16" width="9.22" style="27" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="1" spans="1:11">
-      <c r="A1" s="30" t="s">
+    <row r="1" s="27" customFormat="1" spans="1:11">
+      <c r="A1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" s="29" customFormat="1" spans="1:11">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" s="27" customFormat="1" spans="1:11">
+      <c r="A2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" s="29" customFormat="1" spans="1:11">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31" t="s">
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" s="27" customFormat="1" spans="1:11">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="29" customFormat="1" spans="1:17">
-      <c r="A4" s="32" t="s">
+    <row r="4" s="27" customFormat="1" spans="1:17">
+      <c r="A4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="30">
         <v>2400</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="N4" s="40" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="N4" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-    </row>
-    <row r="5" s="29" customFormat="1" spans="1:17">
-      <c r="A5" s="32" t="s">
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+    </row>
+    <row r="5" s="27" customFormat="1" spans="1:17">
+      <c r="A5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="30">
         <v>8900</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33">
+      <c r="C5" s="30"/>
+      <c r="D5" s="31">
         <v>2500</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-    </row>
-    <row r="6" s="29" customFormat="1" spans="1:17">
-      <c r="A6" s="32" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+    </row>
+    <row r="6" s="27" customFormat="1" spans="1:17">
+      <c r="A6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <v>36500</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="36">
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="34">
         <v>4800</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="N6" s="31" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="N6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="31" t="s">
+      <c r="Q6" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" s="29" customFormat="1" spans="1:17">
-      <c r="A7" s="32" t="s">
+    <row r="7" s="27" customFormat="1" spans="1:17">
+      <c r="A7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="30">
         <v>13700</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="36">
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="34">
         <v>7300</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="N7" s="41" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="N7" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="32" t="str">
-        <f>A15</f>
+      <c r="O7" s="30" t="str">
+        <f>A17</f>
         <v>Sales revenue</v>
       </c>
-      <c r="P7" s="32">
-        <f>I15</f>
+      <c r="P7" s="30">
+        <f>I17</f>
         <v>234500</v>
       </c>
-      <c r="Q7" s="32"/>
-    </row>
-    <row r="8" s="29" customFormat="1" spans="1:17">
-      <c r="A8" s="32" t="s">
+      <c r="Q7" s="30"/>
+    </row>
+    <row r="8" s="27" customFormat="1" spans="1:17">
+      <c r="A8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="30">
         <v>42500</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="42" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42">
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40">
         <f>P7</f>
         <v>234500</v>
       </c>
     </row>
-    <row r="9" s="29" customFormat="1" spans="1:17">
-      <c r="A9" s="32" t="s">
+    <row r="9" s="27" customFormat="1" spans="1:17">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="N9" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32">
+      <c r="O9" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="43">
+        <v>2500</v>
+      </c>
+      <c r="Q9" s="43"/>
+    </row>
+    <row r="10" s="27" customFormat="1" spans="1:17">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="11" s="27" customFormat="1" spans="1:17">
+      <c r="A11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30">
         <v>11600</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="36">
+      <c r="D11" s="31"/>
+      <c r="E11" s="34">
         <v>2300</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="N9" s="43" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="N11" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="44">
-        <f>SUM(Q10:Q14)</f>
-        <v>163100</v>
-      </c>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" s="29" customFormat="1" spans="1:17">
-      <c r="A10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32">
+      <c r="P11" s="46">
+        <f>SUM(Q12:Q16)</f>
+        <v>160600</v>
+      </c>
+      <c r="Q11" s="46"/>
+    </row>
+    <row r="12" s="27" customFormat="1" spans="1:17">
+      <c r="A12" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30">
         <v>9200</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="49">
+      <c r="D12" s="31"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="51"/>
+    </row>
+    <row r="13" s="27" customFormat="1" spans="1:17">
+      <c r="A13" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="34">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="51">
+        <v>116300</v>
+      </c>
+    </row>
+    <row r="14" s="27" customFormat="1" spans="1:17">
+      <c r="A14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30">
+        <v>7900</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="51">
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="15" s="27" customFormat="1" spans="1:17">
+      <c r="A15" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30">
+        <v>34000</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="51">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="16" s="27" customFormat="1" spans="1:17">
+      <c r="A16" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="30">
+        <v>43000</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="36">
+        <f>B16</f>
+        <v>43000</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="36">
+        <f>F16</f>
+        <v>43000</v>
+      </c>
+      <c r="K16" s="36"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="52">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="17" s="27" customFormat="1" spans="1:17">
+      <c r="A17" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30">
+        <v>232000</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="34">
         <v>2500</v>
       </c>
-    </row>
-    <row r="11" s="29" customFormat="1" spans="1:17">
-      <c r="A11" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="49">
+      <c r="F17" s="37"/>
+      <c r="G17" s="37">
+        <f>E17+C17</f>
+        <v>234500</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37">
+        <f>G17</f>
+        <v>234500</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="N17" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="30">
+        <v>71400</v>
+      </c>
+      <c r="Q17" s="30"/>
+    </row>
+    <row r="18" s="27" customFormat="1" spans="1:17">
+      <c r="A18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="30">
+        <v>2500</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="37">
+        <f>B18</f>
+        <v>2500</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37">
+        <f t="shared" ref="H18:H20" si="0">F18</f>
+        <v>2500</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30">
+        <v>71400</v>
+      </c>
+    </row>
+    <row r="19" s="27" customFormat="1" spans="1:17">
+      <c r="A19" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="30">
+        <v>111500</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31">
+        <v>4800</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="37">
+        <f>B19+D19</f>
         <v>116300</v>
       </c>
-    </row>
-    <row r="12" s="29" customFormat="1" spans="1:17">
-      <c r="A12" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32">
-        <v>7900</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="49">
-        <v>27200</v>
-      </c>
-    </row>
-    <row r="13" s="29" customFormat="1" spans="1:17">
-      <c r="A13" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32">
-        <v>34000</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="49">
-        <v>14800</v>
-      </c>
-    </row>
-    <row r="14" s="29" customFormat="1" spans="1:17">
-      <c r="A14" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="32">
-        <v>43000</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38">
-        <f>B14</f>
-        <v>43000</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="38">
-        <f>F14</f>
-        <v>43000</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="50">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="15" s="29" customFormat="1" spans="1:17">
-      <c r="A15" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32">
-        <v>232000</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="36">
-        <v>2500</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39">
-        <f>E15+C15</f>
-        <v>234500</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39">
-        <f>G15</f>
-        <v>234500</v>
-      </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="N15" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="32">
-        <v>71400</v>
-      </c>
-      <c r="Q15" s="32"/>
-    </row>
-    <row r="16" s="29" customFormat="1" spans="1:17">
-      <c r="A16" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="32">
-        <v>2500</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="39">
-        <f>B16</f>
-        <v>2500</v>
-      </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39">
-        <f t="shared" ref="H16:H18" si="0">F16</f>
-        <v>2500</v>
-      </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32">
-        <v>71400</v>
-      </c>
-    </row>
-    <row r="17" s="29" customFormat="1" spans="1:17">
-      <c r="A17" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="32">
-        <v>111500</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33">
-        <v>4800</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="39">
-        <f>B17+D17</f>
-        <v>116300</v>
-      </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39">
+      <c r="G19" s="37"/>
+      <c r="H19" s="37">
         <f t="shared" si="0"/>
         <v>116300</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="N17" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="O17" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="32">
+      <c r="I19" s="37"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="N19" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="30">
         <v>43000</v>
       </c>
-      <c r="Q17" s="32"/>
-    </row>
-    <row r="18" s="29" customFormat="1" spans="1:17">
-      <c r="A18" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="32">
+      <c r="Q19" s="30"/>
+    </row>
+    <row r="20" s="27" customFormat="1" spans="1:17">
+      <c r="A20" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="30">
         <v>21100</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33">
+      <c r="C20" s="30"/>
+      <c r="D20" s="31">
         <v>5100</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="39">
-        <f>B18+D18+D19</f>
+      <c r="E20" s="34"/>
+      <c r="F20" s="37">
+        <f>B20+D20+D21</f>
         <v>27200</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39">
+      <c r="G20" s="37"/>
+      <c r="H20" s="37">
         <f t="shared" si="0"/>
         <v>27200</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32">
+      <c r="I20" s="37"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30">
         <v>43000</v>
       </c>
     </row>
-    <row r="19" s="29" customFormat="1" spans="1:17">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33">
+    <row r="21" s="27" customFormat="1" spans="1:17">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31">
         <v>1000</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="O19" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" s="31">
-        <f>SUM(P7:P18)</f>
+      <c r="E21" s="34"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="O21" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="29">
+        <f>SUM(P7:P20)</f>
         <v>512000</v>
       </c>
-      <c r="Q19" s="31">
-        <f>SUM(Q7:Q18)</f>
+      <c r="Q21" s="29">
+        <f>SUM(Q7:Q20)</f>
         <v>512000</v>
       </c>
     </row>
-    <row r="20" s="29" customFormat="1" spans="1:11">
-      <c r="A20" s="32" t="s">
+    <row r="22" s="27" customFormat="1" spans="1:11">
+      <c r="A22" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="30">
+        <v>10300</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="37">
+        <f>B22+D22+D23</f>
+        <v>14800</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37">
+        <f>F22</f>
+        <v>14800</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" s="27" customFormat="1" spans="1:11">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31">
+        <v>2300</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" s="27" customFormat="1" spans="1:11">
+      <c r="A24" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="30">
+        <v>2300</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="37">
+        <f>B24</f>
+        <v>2300</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37">
+        <f>F24</f>
+        <v>2300</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" s="27" customFormat="1" spans="1:11">
+      <c r="A25" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="32">
-        <v>10300</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33">
-        <v>2200</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="39">
-        <f>B20+D20+D21</f>
-        <v>14800</v>
-      </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39">
-        <f>F20</f>
-        <v>14800</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" s="29" customFormat="1" spans="1:11">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33">
-        <v>2300</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-    </row>
-    <row r="22" s="29" customFormat="1" spans="1:11">
-      <c r="A22" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="32">
-        <v>2300</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="39">
-        <f>B22</f>
-        <v>2300</v>
-      </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39">
-        <f>F22</f>
-        <v>2300</v>
-      </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-    </row>
-    <row r="23" s="29" customFormat="1" spans="1:11">
-      <c r="A23" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="31">
-        <f t="shared" ref="B23:K23" si="1">SUM(B4:B22)</f>
+      <c r="B25" s="29">
+        <f t="shared" ref="B25:K25" si="1">SUM(B4:B24)</f>
         <v>294700</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C25" s="29">
         <f t="shared" si="1"/>
         <v>294700</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D25" s="32">
         <f t="shared" si="1"/>
         <v>17900</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E25" s="32">
         <f t="shared" si="1"/>
         <v>17900</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F25" s="29">
         <f t="shared" si="1"/>
         <v>206100</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G25" s="29">
         <f t="shared" si="1"/>
         <v>234500</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H25" s="29">
         <f t="shared" si="1"/>
         <v>163100</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I25" s="29">
         <f t="shared" si="1"/>
         <v>234500</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J25" s="29">
         <f t="shared" si="1"/>
         <v>43000</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K25" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="29" customFormat="1" spans="1:11">
-      <c r="A24" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31">
-        <f>I23-H23</f>
+    <row r="26" s="27" customFormat="1" spans="1:11">
+      <c r="A26" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29">
+        <f>I25-H25</f>
         <v>71400</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31">
-        <f>J23-K23</f>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29">
+        <f>J25-K25</f>
         <v>43000</v>
       </c>
     </row>
-    <row r="25" s="29" customFormat="1" spans="1:11">
-      <c r="A25" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31">
-        <f t="shared" ref="H25:K25" si="2">SUM(I23:I24)</f>
+    <row r="27" s="27" customFormat="1" spans="1:11">
+      <c r="A27" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29">
+        <f t="shared" ref="H27:K27" si="2">SUM(I25:I26)</f>
         <v>234500</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J27" s="29">
         <f t="shared" si="2"/>
         <v>43000</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K27" s="29">
         <f t="shared" si="2"/>
         <v>43000</v>
       </c>
     </row>
-    <row r="27" s="29" customFormat="1" spans="16:16">
-      <c r="P27" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" s="29" customFormat="1" spans="1:1">
-      <c r="A28" s="35" t="s">
+    <row r="29" s="27" customFormat="1" spans="16:16">
+      <c r="P29" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="13:13">
-      <c r="M29" s="29" t="s">
-        <v>69</v>
+    <row r="30" s="27" customFormat="1" spans="1:1">
+      <c r="A30" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="13:13">
+      <c r="M31" s="27" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G27"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N14"/>
-    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N16"/>
     <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
     <mergeCell ref="N4:Q5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2814,8 +2872,8 @@
   <sheetPr/>
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2827,9 +2885,8 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-      <c r="E2"/>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -2879,7 +2936,6 @@
         <v>400</v>
       </c>
       <c r="F5" s="21"/>
-      <c r="G5"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8">
@@ -2891,7 +2947,6 @@
       </c>
       <c r="D6" s="12"/>
       <c r="F6" s="21"/>
-      <c r="G6"/>
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8">
@@ -2914,7 +2969,7 @@
     </row>
     <row r="9" ht="15.75" spans="2:8">
       <c r="B9" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="15">
         <f t="shared" ref="C9:G9" si="0">SUM(C4:C7)</f>
@@ -2925,27 +2980,27 @@
         <v>2700</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="26">
+        <v>66</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" ht="15.75" spans="2:8">
       <c r="B10" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="18">
         <f>C9-D9</f>
         <v>110</v>
       </c>
       <c r="D10" s="19"/>
-      <c r="F10" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="28">
+      <c r="F10" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="26">
         <v>2300</v>
       </c>
       <c r="H10" s="19"/>
@@ -2958,7 +3013,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
@@ -2987,7 +3042,6 @@
       <c r="B14" s="21">
         <v>45691</v>
       </c>
-      <c r="C14"/>
       <c r="D14" s="12">
         <v>2700</v>
       </c>
@@ -3017,7 +3071,6 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="21"/>
-      <c r="C16"/>
       <c r="D16" s="12"/>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
@@ -3039,39 +3092,39 @@
     </row>
     <row r="19" ht="15.75" spans="2:8">
       <c r="B19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="23">
         <f t="shared" ref="C19:H19" si="1">SUM(C14:C17)</f>
         <v>400</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="6">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" s="23">
         <f t="shared" si="1"/>
         <v>4350</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="6">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="2:8">
       <c r="B20" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="25"/>
+        <v>73</v>
+      </c>
+      <c r="C20" s="24"/>
       <c r="D20" s="19">
         <f>D19-C19</f>
         <v>2300</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20" s="18">
         <f>G19-H19</f>

--- a/auca/sem-1/acct-8112-ancounting/assignments/Assignment solution/E5-16-25.xlsx
+++ b/auca/sem-1/acct-8112-ancounting/assignments/Assignment solution/E5-16-25.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21930" windowHeight="12450" activeTab="1"/>
+    <workbookView windowWidth="27960" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="E5-16" sheetId="1" r:id="rId1"/>
     <sheet name="E5-21" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
   <si>
     <t>Sales</t>
   </si>
@@ -234,6 +235,21 @@
     <t>Blitzes Net Income is 71400</t>
   </si>
   <si>
+    <t>Drawing</t>
+  </si>
+  <si>
+    <t>COGs</t>
+  </si>
+  <si>
+    <t>General expanse</t>
+  </si>
+  <si>
+    <t>Total expenses</t>
+  </si>
+  <si>
+    <t>Total revenue</t>
+  </si>
+  <si>
     <t>COGS</t>
   </si>
   <si>
@@ -241,6 +257,30 @@
   </si>
   <si>
     <t>Acc Receivable</t>
+  </si>
+  <si>
+    <t>Income Statement with Tax</t>
+  </si>
+  <si>
+    <t>Total Service revenue</t>
+  </si>
+  <si>
+    <t>Total expences</t>
+  </si>
+  <si>
+    <t>Net income before tax</t>
+  </si>
+  <si>
+    <t>Income Tax expense goes with tax payable In Journal</t>
+  </si>
+  <si>
+    <t>Income tax expense(30%)</t>
+  </si>
+  <si>
+    <t>Net income after tax</t>
+  </si>
+  <si>
+    <t>we consider net income after tax as final net income in O-E statement</t>
   </si>
 </sst>
 </file>
@@ -248,10 +288,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -308,16 +348,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,6 +372,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -347,7 +402,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,20 +417,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -383,16 +424,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,7 +440,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,16 +454,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -439,6 +471,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,13 +505,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,43 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,25 +619,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,72 +685,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -886,10 +926,81 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -935,9 +1046,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -948,17 +1057,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -976,6 +1074,80 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -996,80 +1168,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1081,142 +1179,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1226,9 +1324,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1321,45 +1422,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1369,9 +1496,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
@@ -1451,6 +1575,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>648335</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>181610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="WhatsApp Image 2025-04-29 at 10.42.10 AM"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="9525"/>
+          <a:ext cx="12209145" cy="1886585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1729,19 +1896,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="66" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1758,7 +1925,7 @@
       <c r="E3">
         <v>60200</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="67">
         <f>D3-E3</f>
         <v>27740</v>
       </c>
@@ -1767,14 +1934,14 @@
       <c r="B4">
         <v>103600</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="67">
         <f>B4-D4</f>
         <v>4380</v>
       </c>
       <c r="D4">
         <v>99220</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="67">
         <f>D4-F4</f>
         <v>65200</v>
       </c>
@@ -1796,20 +1963,20 @@
       <c r="E5">
         <v>40500</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="67">
         <f>D5-E5</f>
         <v>23700</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="54">
+      <c r="B6" s="67">
         <f>D6+C6</f>
         <v>115500</v>
       </c>
       <c r="C6">
         <v>2980</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="67">
         <f>F6+E6</f>
         <v>112520</v>
       </c>
@@ -1822,36 +1989,36 @@
     </row>
     <row r="9" ht="15.75"/>
     <row r="10" spans="1:6">
-      <c r="A10" s="54"/>
-      <c r="C10" s="55" t="s">
+      <c r="A10" s="67"/>
+      <c r="C10" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="63"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" ht="15.75" spans="3:6">
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="64"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="76"/>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="21">
+      <c r="C13" s="22">
         <v>45691</v>
       </c>
       <c r="D13" t="s">
@@ -1860,23 +2027,23 @@
       <c r="E13">
         <v>2700</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="22"/>
+      <c r="C14" s="23"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="13">
         <v>2700</v>
       </c>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="22"/>
-      <c r="F15" s="12"/>
+      <c r="C15" s="23"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="3:6">
-      <c r="C16" s="21">
+      <c r="C16" s="22">
         <v>45695</v>
       </c>
       <c r="D16" t="s">
@@ -1885,23 +2052,23 @@
       <c r="E16">
         <v>400</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="22"/>
+      <c r="C17" s="23"/>
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="13">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="22"/>
-      <c r="F18" s="12"/>
+      <c r="C18" s="23"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="21">
+      <c r="C19" s="22">
         <v>45697</v>
       </c>
       <c r="D19" t="s">
@@ -1910,23 +2077,23 @@
       <c r="E19">
         <v>110</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="22"/>
+      <c r="C20" s="23"/>
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="13">
         <v>110</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="22"/>
-      <c r="F21" s="12"/>
+      <c r="C21" s="23"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="21">
+      <c r="C22" s="22">
         <v>45698</v>
       </c>
       <c r="D22" t="s">
@@ -1935,23 +2102,23 @@
       <c r="E22">
         <v>4350</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="22"/>
+      <c r="C23" s="23"/>
       <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="13">
         <v>4350</v>
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="22"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="23"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="21">
+      <c r="C25" s="22">
         <v>45698</v>
       </c>
       <c r="D25" t="s">
@@ -1960,14 +2127,14 @@
       <c r="E25">
         <v>2300</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="22"/>
+      <c r="C26" s="23"/>
       <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="13">
         <v>2300</v>
       </c>
     </row>
@@ -1975,11 +2142,11 @@
       <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="F27" s="12"/>
+      <c r="C27" s="23"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="21">
+      <c r="C28" s="22">
         <v>45700</v>
       </c>
       <c r="D28" t="s">
@@ -1989,10 +2156,10 @@
         <f>(2700-400)</f>
         <v>2300</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="22"/>
+      <c r="C29" s="23"/>
       <c r="D29" t="s">
         <v>20</v>
       </c>
@@ -2002,21 +2169,21 @@
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="22"/>
+      <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="13">
         <f>(2700-400)*0.96</f>
         <v>2208</v>
       </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="22"/>
-      <c r="F31" s="12"/>
+      <c r="C31" s="23"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="3:6">
-      <c r="C32" s="21">
+      <c r="C32" s="22">
         <v>45704</v>
       </c>
       <c r="D32" t="s">
@@ -2025,23 +2192,23 @@
       <c r="E32">
         <v>500</v>
       </c>
-      <c r="F32" s="12"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="22"/>
+      <c r="C33" s="23"/>
       <c r="D33" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="13">
         <v>500</v>
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="22"/>
-      <c r="F34" s="12"/>
+      <c r="C34" s="23"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="21">
+      <c r="C35" s="22">
         <v>45711</v>
       </c>
       <c r="D35" t="s">
@@ -2051,10 +2218,10 @@
         <f>(4350-500)*0.98</f>
         <v>3773</v>
       </c>
-      <c r="F35" s="12"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="22"/>
+      <c r="C36" s="23"/>
       <c r="D36" t="s">
         <v>25</v>
       </c>
@@ -2062,15 +2229,15 @@
         <f>(4350-500)*0.02</f>
         <v>77</v>
       </c>
-      <c r="F36" s="12"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" ht="15.75" spans="3:6">
-      <c r="C37" s="61"/>
-      <c r="D37" s="62" t="s">
+      <c r="C37" s="73"/>
+      <c r="D37" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="66">
+      <c r="E37" s="74"/>
+      <c r="F37" s="78">
         <f>(4350-500)</f>
         <v>3850</v>
       </c>
@@ -2087,783 +2254,945 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A12:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.9" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12.1066666666667" style="27" customWidth="1"/>
-    <col min="3" max="3" width="10.6666666666667" style="27" customWidth="1"/>
-    <col min="4" max="4" width="11.8866666666667" style="27" customWidth="1"/>
-    <col min="5" max="5" width="11.44" style="27" customWidth="1"/>
-    <col min="6" max="6" width="10.78" style="27" customWidth="1"/>
-    <col min="7" max="7" width="10.6666666666667" style="27" customWidth="1"/>
-    <col min="8" max="14" width="9" style="27"/>
-    <col min="15" max="15" width="20.6666666666667" style="27" customWidth="1"/>
-    <col min="16" max="16" width="9.22" style="27" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="25.9" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.1066666666667" style="28" customWidth="1"/>
+    <col min="3" max="3" width="10.6666666666667" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.8866666666667" style="28" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.78" style="28" customWidth="1"/>
+    <col min="7" max="7" width="10.6666666666667" style="28" customWidth="1"/>
+    <col min="8" max="14" width="9" style="28"/>
+    <col min="15" max="15" width="20.6666666666667" style="28" customWidth="1"/>
+    <col min="16" max="16" width="9.22" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" spans="1:11">
-      <c r="A1" s="28" t="s">
+    <row r="12" s="28" customFormat="1" spans="1:11">
+      <c r="A12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-    </row>
-    <row r="2" s="27" customFormat="1" spans="1:11">
-      <c r="A2" s="28" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" s="28" customFormat="1" spans="1:11">
+      <c r="A13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28" t="s">
+      <c r="I13" s="29"/>
+      <c r="J13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" s="27" customFormat="1" spans="1:11">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29" t="s">
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" s="28" customFormat="1" spans="1:11">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K14" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="27" customFormat="1" spans="1:17">
-      <c r="A4" s="30" t="s">
+    <row r="15" s="28" customFormat="1" spans="1:17">
+      <c r="A15" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B15" s="31">
         <v>2400</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="N4" s="38" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="N15" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-    </row>
-    <row r="5" s="27" customFormat="1" spans="1:17">
-      <c r="A5" s="30" t="s">
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+    </row>
+    <row r="16" s="28" customFormat="1" spans="1:17">
+      <c r="A16" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B16" s="31">
         <v>8900</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32">
         <v>2500</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-    </row>
-    <row r="6" s="27" customFormat="1" spans="1:17">
-      <c r="A6" s="30" t="s">
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+    </row>
+    <row r="17" s="28" customFormat="1" spans="1:17">
+      <c r="A17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B17" s="31">
         <v>36500</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="34">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="35">
         <v>4800</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="N6" s="29" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="N17" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O17" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P17" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="Q17" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" s="27" customFormat="1" spans="1:17">
-      <c r="A7" s="30" t="s">
+    <row r="18" s="28" customFormat="1" spans="1:17">
+      <c r="A18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B18" s="31">
         <v>13700</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="34">
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="35">
         <v>7300</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="N7" s="39" t="s">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="N18" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="30" t="str">
-        <f>A17</f>
+      <c r="O18" s="31" t="str">
+        <f>A28</f>
         <v>Sales revenue</v>
       </c>
-      <c r="P7" s="30">
-        <f>I17</f>
+      <c r="P18" s="31">
+        <f>I28</f>
         <v>234500</v>
       </c>
-      <c r="Q7" s="30"/>
-    </row>
-    <row r="8" s="27" customFormat="1" spans="1:17">
-      <c r="A8" s="30" t="s">
+      <c r="Q18" s="31"/>
+    </row>
+    <row r="19" s="28" customFormat="1" spans="1:17">
+      <c r="A19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B19" s="31">
         <v>42500</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="40" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40">
-        <f>P7</f>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55">
+        <f>P18</f>
         <v>234500</v>
       </c>
     </row>
-    <row r="9" s="27" customFormat="1" spans="1:17">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="N9" s="41" t="s">
+    <row r="20" s="28" customFormat="1" spans="1:17">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="N20" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="42" t="s">
+      <c r="O20" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P20" s="57">
         <v>2500</v>
       </c>
-      <c r="Q9" s="43"/>
-    </row>
-    <row r="10" s="27" customFormat="1" spans="1:17">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="42" t="s">
+      <c r="Q20" s="57"/>
+    </row>
+    <row r="21" s="28" customFormat="1" spans="1:17">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43">
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57">
         <v>2500</v>
       </c>
     </row>
-    <row r="11" s="27" customFormat="1" spans="1:17">
-      <c r="A11" s="30" t="s">
+    <row r="22" s="28" customFormat="1" spans="1:17">
+      <c r="A22" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31">
         <v>11600</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="34">
+      <c r="D22" s="32"/>
+      <c r="E22" s="35">
         <v>2300</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="N11" s="45" t="s">
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="N22" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="30" t="s">
+      <c r="O22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="46">
-        <f>SUM(Q12:Q16)</f>
+      <c r="P22" s="57">
+        <f>SUM(Q23:Q27)</f>
         <v>160600</v>
       </c>
-      <c r="Q11" s="46"/>
-    </row>
-    <row r="12" s="27" customFormat="1" spans="1:17">
-      <c r="A12" s="30" t="s">
+      <c r="Q22" s="57"/>
+    </row>
+    <row r="23" s="28" customFormat="1" spans="1:17">
+      <c r="A23" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31">
         <v>9200</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="51"/>
-    </row>
-    <row r="13" s="27" customFormat="1" spans="1:17">
-      <c r="A13" s="30" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="64"/>
+    </row>
+    <row r="24" s="28" customFormat="1" spans="1:17">
+      <c r="A24" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="34">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="35">
         <v>1000</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="47" t="s">
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="51">
+      <c r="P24" s="60"/>
+      <c r="Q24" s="64">
         <v>116300</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" spans="1:17">
-      <c r="A14" s="30" t="s">
+    <row r="25" s="28" customFormat="1" spans="1:17">
+      <c r="A25" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31">
         <v>7900</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="47" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="51">
+      <c r="P25" s="60"/>
+      <c r="Q25" s="64">
         <v>27200</v>
       </c>
     </row>
-    <row r="15" s="27" customFormat="1" spans="1:17">
-      <c r="A15" s="30" t="s">
+    <row r="26" s="28" customFormat="1" spans="1:17">
+      <c r="A26" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31">
         <v>34000</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="47" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="51">
+      <c r="P26" s="60"/>
+      <c r="Q26" s="64">
         <v>14800</v>
       </c>
     </row>
-    <row r="16" s="27" customFormat="1" spans="1:17">
-      <c r="A16" s="30" t="s">
+    <row r="27" s="28" customFormat="1" spans="1:17">
+      <c r="A27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B27" s="31">
         <v>43000</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="36">
-        <f>B16</f>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="37">
+        <f>B27</f>
         <v>43000</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="36">
-        <f>F16</f>
+      <c r="G27" s="37"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="37">
+        <f>F27</f>
         <v>43000</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="48" t="s">
+      <c r="K27" s="37"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="52">
+      <c r="P27" s="61"/>
+      <c r="Q27" s="65">
         <v>2300</v>
       </c>
     </row>
-    <row r="17" s="27" customFormat="1" spans="1:17">
-      <c r="A17" s="30" t="s">
+    <row r="28" spans="1:17">
+      <c r="A28" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31">
         <v>232000</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="34">
+      <c r="D28" s="32"/>
+      <c r="E28" s="35">
         <v>2500</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37">
-        <f>E17+C17</f>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38">
+        <f>E28+C28</f>
         <v>234500</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37">
-        <f>G17</f>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38">
+        <f>G28</f>
         <v>234500</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="N17" s="49" t="s">
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="N28" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="O28" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="30">
+      <c r="P28" s="31">
         <v>71400</v>
       </c>
-      <c r="Q17" s="30"/>
-    </row>
-    <row r="18" s="27" customFormat="1" spans="1:17">
-      <c r="A18" s="30" t="s">
+      <c r="Q28" s="31"/>
+    </row>
+    <row r="29" s="28" customFormat="1" spans="1:17">
+      <c r="A29" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B29" s="31">
         <v>2500</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="37">
-        <f>B18</f>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="38">
+        <f>B29</f>
         <v>2500</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37">
-        <f t="shared" ref="H18:H20" si="0">F18</f>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38">
+        <f t="shared" ref="H29:H31" si="0">F29</f>
         <v>2500</v>
       </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="30" t="s">
+      <c r="I29" s="38"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30">
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31">
         <v>71400</v>
       </c>
     </row>
-    <row r="19" s="27" customFormat="1" spans="1:17">
-      <c r="A19" s="30" t="s">
+    <row r="30" s="28" customFormat="1" spans="1:17">
+      <c r="A30" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B30" s="31">
         <v>111500</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31">
+      <c r="C30" s="31"/>
+      <c r="D30" s="32">
         <v>4800</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="37">
-        <f>B19+D19</f>
+      <c r="E30" s="35"/>
+      <c r="F30" s="38">
+        <f>B30+D30</f>
         <v>116300</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37">
+      <c r="G30" s="38"/>
+      <c r="H30" s="38">
         <f t="shared" si="0"/>
         <v>116300</v>
       </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="N19" s="39" t="s">
+      <c r="I30" s="38"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="N30" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="O19" s="30" t="s">
+      <c r="O30" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P30" s="31">
         <v>43000</v>
       </c>
-      <c r="Q19" s="30"/>
-    </row>
-    <row r="20" s="27" customFormat="1" spans="1:17">
-      <c r="A20" s="30" t="s">
+      <c r="Q30" s="31"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B31" s="31">
         <v>21100</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31">
+      <c r="C31" s="31"/>
+      <c r="D31" s="32">
         <v>5100</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="37">
-        <f>B20+D20+D21</f>
+      <c r="E31" s="35"/>
+      <c r="F31" s="38">
+        <f>B31+D31+D32</f>
         <v>27200</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37">
+      <c r="G31" s="38"/>
+      <c r="H31" s="38">
         <f t="shared" si="0"/>
         <v>27200</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="30" t="s">
+      <c r="I31" s="38"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30">
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31">
         <v>43000</v>
       </c>
     </row>
-    <row r="21" s="27" customFormat="1" spans="1:17">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31">
+    <row r="32" spans="1:17">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32">
         <v>1000</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="O21" s="29" t="s">
+      <c r="E32" s="35"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="O32" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="P21" s="29">
-        <f>SUM(P7:P20)</f>
+      <c r="P32" s="30">
+        <f>SUM(P18:P31)</f>
         <v>512000</v>
       </c>
-      <c r="Q21" s="29">
-        <f>SUM(Q7:Q20)</f>
+      <c r="Q32" s="30">
+        <f>SUM(Q18:Q31)</f>
         <v>512000</v>
       </c>
     </row>
-    <row r="22" s="27" customFormat="1" spans="1:11">
-      <c r="A22" s="30" t="s">
+    <row r="33" spans="1:11">
+      <c r="A33" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B33" s="31">
         <v>10300</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31">
+      <c r="C33" s="31"/>
+      <c r="D33" s="32">
         <v>2200</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="37">
-        <f>B22+D22+D23</f>
+      <c r="E33" s="35"/>
+      <c r="F33" s="38">
+        <f>B33+D33+D34</f>
         <v>14800</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37">
-        <f>F22</f>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38">
+        <f>F33</f>
         <v>14800</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" s="27" customFormat="1" spans="1:11">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31">
+      <c r="I33" s="38"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32">
         <v>2300</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-    </row>
-    <row r="24" s="27" customFormat="1" spans="1:11">
-      <c r="A24" s="30" t="s">
+      <c r="E34" s="35"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B35" s="31">
         <v>2300</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="37">
-        <f>B24</f>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="38">
+        <f>B35</f>
         <v>2300</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37">
-        <f>F24</f>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38">
+        <f>F35</f>
         <v>2300</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-    </row>
-    <row r="25" s="27" customFormat="1" spans="1:11">
-      <c r="A25" s="29" t="s">
+      <c r="I35" s="38"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="29">
-        <f t="shared" ref="B25:K25" si="1">SUM(B4:B24)</f>
+      <c r="B36" s="30">
+        <f t="shared" ref="B36:K36" si="1">SUM(B15:B35)</f>
         <v>294700</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C36" s="30">
         <f t="shared" si="1"/>
         <v>294700</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D36" s="33">
         <f t="shared" si="1"/>
         <v>17900</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E36" s="33">
         <f t="shared" si="1"/>
         <v>17900</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F36" s="30">
         <f t="shared" si="1"/>
         <v>206100</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G36" s="30">
         <f t="shared" si="1"/>
         <v>234500</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H36" s="30">
         <f t="shared" si="1"/>
         <v>163100</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I36" s="30">
         <f t="shared" si="1"/>
         <v>234500</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J36" s="30">
         <f t="shared" si="1"/>
         <v>43000</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K36" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="27" customFormat="1" spans="1:11">
-      <c r="A26" s="28" t="s">
+    <row r="37" spans="1:11">
+      <c r="A37" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29">
-        <f>I25-H25</f>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30">
+        <f>I36-H36</f>
         <v>71400</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29">
-        <f>J25-K25</f>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30">
+        <f>J36-K36</f>
         <v>43000</v>
       </c>
     </row>
-    <row r="27" s="27" customFormat="1" spans="1:11">
-      <c r="A27" s="28" t="s">
+    <row r="38" spans="1:11">
+      <c r="A38" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29">
-        <f t="shared" ref="H27:K27" si="2">SUM(I25:I26)</f>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30">
+        <f t="shared" ref="H38:K38" si="2">SUM(I36:I37)</f>
         <v>234500</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J38" s="30">
         <f t="shared" si="2"/>
         <v>43000</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K38" s="30">
         <f t="shared" si="2"/>
         <v>43000</v>
       </c>
     </row>
-    <row r="29" s="27" customFormat="1" spans="16:16">
-      <c r="P29" s="27" t="s">
+    <row r="40" spans="16:16">
+      <c r="P40" s="28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" s="27" customFormat="1" spans="1:1">
-      <c r="A30" s="33" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="13:13">
-      <c r="M31" s="27" t="s">
+    <row r="42" ht="15.75" spans="5:13">
+      <c r="E42" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41"/>
+      <c r="M42" s="28" t="s">
         <v>70</v>
       </c>
+    </row>
+    <row r="43" ht="15.75" spans="5:7">
+      <c r="E43" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="E44" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="46">
+        <v>43000</v>
+      </c>
+      <c r="G44" s="46"/>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="E45" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48">
+        <v>234500</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7">
+      <c r="E46" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="48">
+        <v>2500</v>
+      </c>
+      <c r="G46" s="48"/>
+    </row>
+    <row r="47" spans="5:7">
+      <c r="E47" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="48">
+        <v>116300</v>
+      </c>
+      <c r="G47" s="48"/>
+    </row>
+    <row r="48" spans="5:7">
+      <c r="E48" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="48">
+        <v>27200</v>
+      </c>
+      <c r="G48" s="48"/>
+    </row>
+    <row r="49" spans="5:7">
+      <c r="E49" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="49">
+        <v>14800</v>
+      </c>
+      <c r="G49" s="48"/>
+    </row>
+    <row r="50" spans="5:7">
+      <c r="E50" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="51">
+        <v>2300</v>
+      </c>
+      <c r="G50" s="52"/>
+    </row>
+    <row r="51" spans="6:7">
+      <c r="F51"/>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="6:7">
+      <c r="F52"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53">
+        <f>SUM(F47:F50)</f>
+        <v>160600</v>
+      </c>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="E54" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54">
+        <f>G45-F46</f>
+        <v>232000</v>
+      </c>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="5:7">
+      <c r="E55" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55">
+        <f>F54-F53</f>
+        <v>71400</v>
+      </c>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="6:7">
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="6:7">
+      <c r="F57"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="6:7">
+      <c r="F58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="6:7">
+      <c r="F59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="6:7">
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="6:7">
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="6:7">
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="6:7">
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="6:7">
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="6:7">
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="6:7">
+      <c r="F66"/>
+      <c r="G66"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N4:Q5"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N15:Q16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2880,257 +3209,257 @@
   <sheetData>
     <row r="1" ht="15.75"/>
     <row r="2" ht="15.75" spans="2:8">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" ht="15.75" spans="2:8">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>45691</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>2700</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="F4" s="21">
+      <c r="D4" s="10"/>
+      <c r="F4" s="22">
         <v>45698</v>
       </c>
       <c r="G4">
         <v>2300</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>45695</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12">
+      <c r="C5" s="12"/>
+      <c r="D5" s="13">
         <v>400</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="H5" s="12"/>
+      <c r="F5" s="22"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>45697</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>110</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="F6" s="21"/>
-      <c r="H6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="F6" s="22"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>45698</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12">
+      <c r="C7" s="12"/>
+      <c r="D7" s="13">
         <v>2300</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="H7" s="12"/>
+      <c r="F7" s="22"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" ht="15.75" spans="2:8">
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="F8" s="22"/>
-      <c r="H8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="F8" s="23"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" ht="15.75" spans="2:8">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="16">
         <f t="shared" ref="C9:G9" si="0">SUM(C4:C7)</f>
         <v>2810</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" ht="15.75" spans="2:8">
-      <c r="B10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="B10" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="19">
         <f>C9-D9</f>
         <v>110</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="F10" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="26">
+      <c r="D10" s="20"/>
+      <c r="F10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="27">
         <v>2300</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" ht="15.75"/>
     <row r="12" ht="15.75" spans="2:8">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" ht="15.75" spans="2:8">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="21">
+      <c r="B14" s="22">
         <v>45691</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="13">
         <v>2700</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>45698</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <v>4350</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <v>45695</v>
       </c>
       <c r="C15">
         <v>400</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="F15" s="10">
+      <c r="D15" s="13"/>
+      <c r="F15" s="11">
         <v>45704</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12">
+      <c r="G15" s="12"/>
+      <c r="H15" s="13">
         <v>500</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="21"/>
-      <c r="D16" s="12"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="B16" s="22"/>
+      <c r="D16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="21"/>
-      <c r="D17" s="12"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="B17" s="22"/>
+      <c r="D17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" ht="15.75" spans="2:8">
-      <c r="B18" s="22"/>
-      <c r="D18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
+      <c r="B18" s="23"/>
+      <c r="D18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" ht="15.75" spans="2:8">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="24">
         <f t="shared" ref="C19:H19" si="1">SUM(C14:C17)</f>
         <v>400</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="24">
         <f t="shared" si="1"/>
         <v>4350</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="2:8">
-      <c r="B20" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="19">
+      <c r="B20" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="20">
         <f>D19-C19</f>
         <v>2300</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="F20" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="19">
         <f>G19-H19</f>
         <v>3850</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3142,4 +3471,85 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="22.3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <f>C2-C3</f>
+        <v>5200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <f>C4*0.3</f>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6">
+        <f>C4-C5</f>
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/auca/sem-1/acct-8112-ancounting/assignments/Assignment solution/E5-16-25.xlsx
+++ b/auca/sem-1/acct-8112-ancounting/assignments/Assignment solution/E5-16-25.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="12450" activeTab="1"/>
+    <workbookView windowWidth="27795" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="E5-16" sheetId="1" r:id="rId1"/>
     <sheet name="E5-21" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
   <si>
     <t>Sales</t>
   </si>
@@ -281,6 +282,45 @@
   </si>
   <si>
     <t>we consider net income after tax as final net income in O-E statement</t>
+  </si>
+  <si>
+    <t>Journal for closing Entries</t>
+  </si>
+  <si>
+    <t>Sales Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Income summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sales discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sales return and allowance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   cost of good sold</t>
+  </si>
+  <si>
+    <t>Incomes summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Selling expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  General expens</t>
+  </si>
+  <si>
+    <t>Net sales = sales revenue - (sales disc + sales retun &amp; allowanc)
+Net sales = 179930-(7100+8080) = 164750 
+Gross Profit = Net sales - Cost of Good sold = 164750-101900= 62850
+Net income = net sales - (Cost of good sold+operating expenses( remaining expenses)
+Net Income = 164750-(101900+21380+9080)=32390</t>
+  </si>
+  <si>
+    <t>Or net income = Gross profit - operating expenses
+Net income = gross profit - (selling expenses + General expenses)
+=62850-(21380+9080)=32390</t>
   </si>
 </sst>
 </file>
@@ -288,14 +328,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -348,6 +396,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -356,23 +411,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,13 +444,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -403,29 +453,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,10 +474,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,9 +511,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,7 +553,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +643,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,19 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,25 +703,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,109 +727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +754,86 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -766,17 +894,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -806,15 +923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -840,52 +948,12 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1054,26 +1122,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1092,17 +1140,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,7 +1153,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,22 +1173,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,6 +1205,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1179,157 +1227,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1340,16 +1385,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -1358,162 +1424,200 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1613,6 +1717,53 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6696075" cy="5181600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1896,19 +2047,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1925,7 +2076,7 @@
       <c r="E3">
         <v>60200</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="83">
         <f>D3-E3</f>
         <v>27740</v>
       </c>
@@ -1934,14 +2085,14 @@
       <c r="B4">
         <v>103600</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="83">
         <f>B4-D4</f>
         <v>4380</v>
       </c>
       <c r="D4">
         <v>99220</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="83">
         <f>D4-F4</f>
         <v>65200</v>
       </c>
@@ -1963,20 +2114,20 @@
       <c r="E5">
         <v>40500</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="83">
         <f>D5-E5</f>
         <v>23700</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="67">
+      <c r="B6" s="83">
         <f>D6+C6</f>
         <v>115500</v>
       </c>
       <c r="C6">
         <v>2980</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="83">
         <f>F6+E6</f>
         <v>112520</v>
       </c>
@@ -1989,36 +2140,36 @@
     </row>
     <row r="9" ht="15.75"/>
     <row r="10" spans="1:6">
-      <c r="A10" s="67"/>
-      <c r="C10" s="68" t="s">
+      <c r="A10" s="83"/>
+      <c r="C10" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="75"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="91"/>
     </row>
     <row r="11" ht="15.75" spans="3:6">
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="76"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="92"/>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="93" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="22">
+      <c r="C13" s="43">
         <v>45691</v>
       </c>
       <c r="D13" t="s">
@@ -2027,23 +2178,23 @@
       <c r="E13">
         <v>2700</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="23"/>
+      <c r="C14" s="44"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="34">
         <v>2700</v>
       </c>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="23"/>
-      <c r="F15" s="13"/>
+      <c r="C15" s="44"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="3:6">
-      <c r="C16" s="22">
+      <c r="C16" s="43">
         <v>45695</v>
       </c>
       <c r="D16" t="s">
@@ -2052,23 +2203,23 @@
       <c r="E16">
         <v>400</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="23"/>
+      <c r="C17" s="44"/>
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="34">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="23"/>
-      <c r="F18" s="13"/>
+      <c r="C18" s="44"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="22">
+      <c r="C19" s="43">
         <v>45697</v>
       </c>
       <c r="D19" t="s">
@@ -2077,23 +2228,23 @@
       <c r="E19">
         <v>110</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="23"/>
+      <c r="C20" s="44"/>
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="34">
         <v>110</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="23"/>
-      <c r="F21" s="13"/>
+      <c r="C21" s="44"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="22">
+      <c r="C22" s="43">
         <v>45698</v>
       </c>
       <c r="D22" t="s">
@@ -2102,23 +2253,23 @@
       <c r="E22">
         <v>4350</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="23"/>
+      <c r="C23" s="44"/>
       <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="34">
         <v>4350</v>
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="23"/>
-      <c r="F24" s="13"/>
+      <c r="C24" s="44"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="22">
+      <c r="C25" s="43">
         <v>45698</v>
       </c>
       <c r="D25" t="s">
@@ -2127,14 +2278,14 @@
       <c r="E25">
         <v>2300</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="23"/>
+      <c r="C26" s="44"/>
       <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="34">
         <v>2300</v>
       </c>
     </row>
@@ -2142,11 +2293,11 @@
       <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="F27" s="13"/>
+      <c r="C27" s="44"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="22">
+      <c r="C28" s="43">
         <v>45700</v>
       </c>
       <c r="D28" t="s">
@@ -2156,10 +2307,10 @@
         <f>(2700-400)</f>
         <v>2300</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="23"/>
+      <c r="C29" s="44"/>
       <c r="D29" t="s">
         <v>20</v>
       </c>
@@ -2169,21 +2320,21 @@
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="23"/>
+      <c r="C30" s="44"/>
       <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="34">
         <f>(2700-400)*0.96</f>
         <v>2208</v>
       </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="23"/>
-      <c r="F31" s="13"/>
+      <c r="C31" s="44"/>
+      <c r="F31" s="34"/>
     </row>
     <row r="32" spans="3:6">
-      <c r="C32" s="22">
+      <c r="C32" s="43">
         <v>45704</v>
       </c>
       <c r="D32" t="s">
@@ -2192,23 +2343,23 @@
       <c r="E32">
         <v>500</v>
       </c>
-      <c r="F32" s="13"/>
+      <c r="F32" s="34"/>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="23"/>
+      <c r="C33" s="44"/>
       <c r="D33" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="34">
         <v>500</v>
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="23"/>
-      <c r="F34" s="13"/>
+      <c r="C34" s="44"/>
+      <c r="F34" s="34"/>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="22">
+      <c r="C35" s="43">
         <v>45711</v>
       </c>
       <c r="D35" t="s">
@@ -2218,10 +2369,10 @@
         <f>(4350-500)*0.98</f>
         <v>3773</v>
       </c>
-      <c r="F35" s="13"/>
+      <c r="F35" s="34"/>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="23"/>
+      <c r="C36" s="44"/>
       <c r="D36" t="s">
         <v>25</v>
       </c>
@@ -2229,15 +2380,15 @@
         <f>(4350-500)*0.02</f>
         <v>77</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="34"/>
     </row>
     <row r="37" ht="15.75" spans="3:6">
-      <c r="C37" s="73"/>
-      <c r="D37" s="74" t="s">
+      <c r="C37" s="89"/>
+      <c r="D37" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="78">
+      <c r="E37" s="90"/>
+      <c r="F37" s="94">
         <f>(4350-500)</f>
         <v>3850</v>
       </c>
@@ -2256,839 +2407,839 @@
   <sheetPr/>
   <dimension ref="A12:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.9" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.1066666666667" style="28" customWidth="1"/>
-    <col min="3" max="3" width="10.6666666666667" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.8866666666667" style="28" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="28" customWidth="1"/>
-    <col min="6" max="6" width="10.78" style="28" customWidth="1"/>
-    <col min="7" max="7" width="10.6666666666667" style="28" customWidth="1"/>
-    <col min="8" max="14" width="9" style="28"/>
-    <col min="15" max="15" width="20.6666666666667" style="28" customWidth="1"/>
-    <col min="16" max="16" width="9.22" style="28" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="25.9" style="49" customWidth="1"/>
+    <col min="2" max="2" width="12.1066666666667" style="49" customWidth="1"/>
+    <col min="3" max="3" width="10.6666666666667" style="49" customWidth="1"/>
+    <col min="4" max="4" width="11.8866666666667" style="49" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="49" customWidth="1"/>
+    <col min="6" max="6" width="10.78" style="49" customWidth="1"/>
+    <col min="7" max="7" width="10.6666666666667" style="49" customWidth="1"/>
+    <col min="8" max="14" width="9" style="49"/>
+    <col min="15" max="15" width="20.6666666666667" style="49" customWidth="1"/>
+    <col min="16" max="16" width="9.22" style="49" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="12" s="28" customFormat="1" spans="1:11">
-      <c r="A12" s="29" t="s">
+    <row r="12" s="49" customFormat="1" spans="1:11">
+      <c r="A12" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-    </row>
-    <row r="13" s="28" customFormat="1" spans="1:11">
-      <c r="A13" s="29" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" s="49" customFormat="1" spans="1:11">
+      <c r="A13" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29" t="s">
+      <c r="G13" s="50"/>
+      <c r="H13" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29" t="s">
+      <c r="I13" s="50"/>
+      <c r="J13" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" s="28" customFormat="1" spans="1:11">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30" t="s">
+      <c r="K13" s="50"/>
+    </row>
+    <row r="14" s="49" customFormat="1" spans="1:11">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" s="28" customFormat="1" spans="1:17">
-      <c r="A15" s="31" t="s">
+    <row r="15" s="49" customFormat="1" spans="1:17">
+      <c r="A15" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="52">
         <v>2400</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="N15" s="53" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="N15" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-    </row>
-    <row r="16" s="28" customFormat="1" spans="1:17">
-      <c r="A16" s="31" t="s">
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+    </row>
+    <row r="16" s="49" customFormat="1" spans="1:17">
+      <c r="A16" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="52">
         <v>8900</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32">
+      <c r="C16" s="52"/>
+      <c r="D16" s="53">
         <v>2500</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-    </row>
-    <row r="17" s="28" customFormat="1" spans="1:17">
-      <c r="A17" s="31" t="s">
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+    </row>
+    <row r="17" s="49" customFormat="1" spans="1:17">
+      <c r="A17" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="52">
         <v>36500</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="35">
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="56">
         <v>4800</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="N17" s="30" t="s">
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="N17" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="O17" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="30" t="s">
+      <c r="P17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="30" t="s">
+      <c r="Q17" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" s="28" customFormat="1" spans="1:17">
-      <c r="A18" s="31" t="s">
+    <row r="18" s="49" customFormat="1" spans="1:17">
+      <c r="A18" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="52">
         <v>13700</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="35">
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="56">
         <v>7300</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="N18" s="54" t="s">
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="N18" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="31" t="str">
+      <c r="O18" s="52" t="str">
         <f>A28</f>
         <v>Sales revenue</v>
       </c>
-      <c r="P18" s="31">
+      <c r="P18" s="52">
         <f>I28</f>
         <v>234500</v>
       </c>
-      <c r="Q18" s="31"/>
-    </row>
-    <row r="19" s="28" customFormat="1" spans="1:17">
-      <c r="A19" s="31" t="s">
+      <c r="Q18" s="52"/>
+    </row>
+    <row r="19" s="49" customFormat="1" spans="1:17">
+      <c r="A19" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="52">
         <v>42500</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55">
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73">
         <f>P18</f>
         <v>234500</v>
       </c>
     </row>
-    <row r="20" s="28" customFormat="1" spans="1:17">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="N20" s="56" t="s">
+    <row r="20" s="49" customFormat="1" spans="1:17">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="N20" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="O20" s="55" t="s">
+      <c r="O20" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="P20" s="57">
+      <c r="P20" s="75">
         <v>2500</v>
       </c>
-      <c r="Q20" s="57"/>
-    </row>
-    <row r="21" s="28" customFormat="1" spans="1:17">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="55" t="s">
+      <c r="Q20" s="75"/>
+    </row>
+    <row r="21" s="49" customFormat="1" spans="1:17">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57">
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75">
         <v>2500</v>
       </c>
     </row>
-    <row r="22" s="28" customFormat="1" spans="1:17">
-      <c r="A22" s="31" t="s">
+    <row r="22" s="49" customFormat="1" spans="1:17">
+      <c r="A22" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52">
         <v>11600</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="35">
+      <c r="D22" s="53"/>
+      <c r="E22" s="56">
         <v>2300</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="N22" s="59" t="s">
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="N22" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="31" t="s">
+      <c r="O22" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="P22" s="57">
+      <c r="P22" s="75">
         <f>SUM(Q23:Q27)</f>
         <v>160600</v>
       </c>
-      <c r="Q22" s="57"/>
-    </row>
-    <row r="23" s="28" customFormat="1" spans="1:17">
-      <c r="A23" s="31" t="s">
+      <c r="Q22" s="75"/>
+    </row>
+    <row r="23" s="49" customFormat="1" spans="1:17">
+      <c r="A23" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31">
+      <c r="B23" s="52"/>
+      <c r="C23" s="52">
         <v>9200</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="64"/>
-    </row>
-    <row r="24" s="28" customFormat="1" spans="1:17">
-      <c r="A24" s="31" t="s">
+      <c r="D23" s="53"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="81"/>
+    </row>
+    <row r="24" s="49" customFormat="1" spans="1:17">
+      <c r="A24" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="35">
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="56">
         <v>1000</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="60" t="s">
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="64">
+      <c r="P24" s="78"/>
+      <c r="Q24" s="81">
         <v>116300</v>
       </c>
     </row>
-    <row r="25" s="28" customFormat="1" spans="1:17">
-      <c r="A25" s="31" t="s">
+    <row r="25" s="49" customFormat="1" spans="1:17">
+      <c r="A25" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52">
         <v>7900</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="60" t="s">
+      <c r="D25" s="53"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="64">
+      <c r="P25" s="78"/>
+      <c r="Q25" s="81">
         <v>27200</v>
       </c>
     </row>
-    <row r="26" s="28" customFormat="1" spans="1:17">
-      <c r="A26" s="31" t="s">
+    <row r="26" s="49" customFormat="1" spans="1:17">
+      <c r="A26" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31">
+      <c r="B26" s="52"/>
+      <c r="C26" s="52">
         <v>34000</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="60" t="s">
+      <c r="D26" s="53"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="64">
+      <c r="P26" s="78"/>
+      <c r="Q26" s="81">
         <v>14800</v>
       </c>
     </row>
-    <row r="27" s="28" customFormat="1" spans="1:17">
-      <c r="A27" s="31" t="s">
+    <row r="27" s="49" customFormat="1" spans="1:17">
+      <c r="A27" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="52">
         <v>43000</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="37">
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="58">
         <f>B27</f>
         <v>43000</v>
       </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="37">
+      <c r="G27" s="58"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="58">
         <f>F27</f>
         <v>43000</v>
       </c>
-      <c r="K27" s="37"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="61" t="s">
+      <c r="K27" s="58"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="65">
+      <c r="P27" s="65"/>
+      <c r="Q27" s="82">
         <v>2300</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52">
         <v>232000</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="35">
+      <c r="D28" s="53"/>
+      <c r="E28" s="56">
         <v>2500</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38">
+      <c r="F28" s="59"/>
+      <c r="G28" s="59">
         <f>E28+C28</f>
         <v>234500</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38">
+      <c r="H28" s="59"/>
+      <c r="I28" s="59">
         <f>G28</f>
         <v>234500</v>
       </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="N28" s="62" t="s">
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="N28" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="O28" s="31" t="s">
+      <c r="O28" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="31">
+      <c r="P28" s="52">
         <v>71400</v>
       </c>
-      <c r="Q28" s="31"/>
-    </row>
-    <row r="29" s="28" customFormat="1" spans="1:17">
-      <c r="A29" s="31" t="s">
+      <c r="Q28" s="52"/>
+    </row>
+    <row r="29" s="49" customFormat="1" spans="1:17">
+      <c r="A29" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="52">
         <v>2500</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="38">
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="59">
         <f>B29</f>
         <v>2500</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38">
+      <c r="G29" s="59"/>
+      <c r="H29" s="59">
         <f t="shared" ref="H29:H31" si="0">F29</f>
         <v>2500</v>
       </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="31" t="s">
+      <c r="I29" s="59"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31">
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52">
         <v>71400</v>
       </c>
     </row>
-    <row r="30" s="28" customFormat="1" spans="1:17">
-      <c r="A30" s="31" t="s">
+    <row r="30" s="49" customFormat="1" spans="1:17">
+      <c r="A30" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="52">
         <v>111500</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32">
+      <c r="C30" s="52"/>
+      <c r="D30" s="53">
         <v>4800</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="38">
+      <c r="E30" s="56"/>
+      <c r="F30" s="59">
         <f>B30+D30</f>
         <v>116300</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38">
+      <c r="G30" s="59"/>
+      <c r="H30" s="59">
         <f t="shared" si="0"/>
         <v>116300</v>
       </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="N30" s="54" t="s">
+      <c r="I30" s="59"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="N30" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="O30" s="31" t="s">
+      <c r="O30" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="P30" s="31">
+      <c r="P30" s="52">
         <v>43000</v>
       </c>
-      <c r="Q30" s="31"/>
+      <c r="Q30" s="52"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="52">
         <v>21100</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32">
+      <c r="C31" s="52"/>
+      <c r="D31" s="53">
         <v>5100</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="38">
+      <c r="E31" s="56"/>
+      <c r="F31" s="59">
         <f>B31+D31+D32</f>
         <v>27200</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38">
+      <c r="G31" s="59"/>
+      <c r="H31" s="59">
         <f t="shared" si="0"/>
         <v>27200</v>
       </c>
-      <c r="I31" s="38"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="31" t="s">
+      <c r="I31" s="59"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31">
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52">
         <v>43000</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32">
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53">
         <v>1000</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="O32" s="30" t="s">
+      <c r="E32" s="56"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="O32" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="P32" s="30">
+      <c r="P32" s="51">
         <f>SUM(P18:P31)</f>
         <v>512000</v>
       </c>
-      <c r="Q32" s="30">
+      <c r="Q32" s="51">
         <f>SUM(Q18:Q31)</f>
         <v>512000</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="52">
         <v>10300</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32">
+      <c r="C33" s="52"/>
+      <c r="D33" s="53">
         <v>2200</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="38">
+      <c r="E33" s="56"/>
+      <c r="F33" s="59">
         <f>B33+D33+D34</f>
         <v>14800</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38">
+      <c r="G33" s="59"/>
+      <c r="H33" s="59">
         <f>F33</f>
         <v>14800</v>
       </c>
-      <c r="I33" s="38"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53">
         <v>2300</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="52">
         <v>2300</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="38">
+      <c r="C35" s="52"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="59">
         <f>B35</f>
         <v>2300</v>
       </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38">
+      <c r="G35" s="59"/>
+      <c r="H35" s="59">
         <f>F35</f>
         <v>2300</v>
       </c>
-      <c r="I35" s="38"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="51">
         <f t="shared" ref="B36:K36" si="1">SUM(B15:B35)</f>
         <v>294700</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="51">
         <f t="shared" si="1"/>
         <v>294700</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="54">
         <f t="shared" si="1"/>
         <v>17900</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="54">
         <f t="shared" si="1"/>
         <v>17900</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="51">
         <f t="shared" si="1"/>
         <v>206100</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="51">
         <f t="shared" si="1"/>
         <v>234500</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="51">
         <f t="shared" si="1"/>
         <v>163100</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="51">
         <f t="shared" si="1"/>
         <v>234500</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="51">
         <f t="shared" si="1"/>
         <v>43000</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51">
         <f>I36-H36</f>
         <v>71400</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30">
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51">
         <f>J36-K36</f>
         <v>43000</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30">
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51">
         <f t="shared" ref="H38:K38" si="2">SUM(I36:I37)</f>
         <v>234500</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="51">
         <f t="shared" si="2"/>
         <v>43000</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="51">
         <f t="shared" si="2"/>
         <v>43000</v>
       </c>
     </row>
     <row r="40" spans="16:16">
-      <c r="P40" s="28" t="s">
+      <c r="P40" s="49" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="34" t="s">
+    <row r="41" ht="15.75" spans="1:1">
+      <c r="A41" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" ht="15.75" spans="5:13">
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
-      <c r="M42" s="28" t="s">
+      <c r="F42" s="61"/>
+      <c r="G42" s="62"/>
+      <c r="M42" s="49" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43" ht="15.75" spans="5:7">
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="44" t="s">
+      <c r="G43" s="64" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="44" spans="5:7">
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="66">
         <v>43000</v>
       </c>
-      <c r="G44" s="46"/>
+      <c r="G44" s="66"/>
     </row>
     <row r="45" spans="5:7">
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48">
+      <c r="F45" s="67"/>
+      <c r="G45" s="67">
         <v>234500</v>
       </c>
     </row>
     <row r="46" spans="5:7">
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="48">
+      <c r="F46" s="67">
         <v>2500</v>
       </c>
-      <c r="G46" s="48"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="5:7">
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="48">
+      <c r="F47" s="67">
         <v>116300</v>
       </c>
-      <c r="G47" s="48"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="5:7">
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="48">
+      <c r="F48" s="67">
         <v>27200</v>
       </c>
-      <c r="G48" s="48"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="5:7">
-      <c r="E49" s="47" t="s">
+      <c r="E49" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="49">
+      <c r="F49" s="68">
         <v>14800</v>
       </c>
-      <c r="G49" s="48"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="5:7">
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="51">
+      <c r="F50" s="52">
         <v>2300</v>
       </c>
-      <c r="G50" s="52"/>
+      <c r="G50" s="70"/>
     </row>
     <row r="51" spans="6:7">
       <c r="F51"/>
@@ -3099,7 +3250,7 @@
       <c r="G52"/>
     </row>
     <row r="53" spans="5:7">
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="55" t="s">
         <v>75</v>
       </c>
       <c r="F53">
@@ -3109,7 +3260,7 @@
       <c r="G53"/>
     </row>
     <row r="54" spans="5:7">
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="55" t="s">
         <v>76</v>
       </c>
       <c r="F54">
@@ -3119,7 +3270,7 @@
       <c r="G54"/>
     </row>
     <row r="55" spans="5:7">
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="55" t="s">
         <v>69</v>
       </c>
       <c r="F55">
@@ -3209,257 +3360,257 @@
   <sheetData>
     <row r="1" ht="15.75"/>
     <row r="2" ht="15.75" spans="2:8">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="F2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" ht="15.75" spans="2:8">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="8">
+      <c r="B4" s="29">
         <v>45691</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="30">
         <v>2700</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="F4" s="22">
+      <c r="D4" s="31"/>
+      <c r="F4" s="43">
         <v>45698</v>
       </c>
       <c r="G4">
         <v>2300</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="11">
+      <c r="B5" s="32">
         <v>45695</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34">
         <v>400</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="43"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="11">
+      <c r="B6" s="32">
         <v>45697</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="33">
         <v>110</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="F6" s="22"/>
-      <c r="H6" s="13"/>
+      <c r="D6" s="34"/>
+      <c r="F6" s="43"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="11">
+      <c r="B7" s="32">
         <v>45698</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13">
+      <c r="C7" s="33"/>
+      <c r="D7" s="34">
         <v>2300</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="H7" s="13"/>
+      <c r="F7" s="43"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" ht="15.75" spans="2:8">
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="F8" s="23"/>
-      <c r="H8" s="13"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="F8" s="44"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" ht="15.75" spans="2:8">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="37">
         <f t="shared" ref="C9:G9" si="0">SUM(C4:C7)</f>
         <v>2810</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="38">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="27">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" ht="15.75" spans="2:8">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="40">
         <f>C9-D9</f>
         <v>110</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="F10" s="26" t="s">
+      <c r="D10" s="41"/>
+      <c r="F10" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="48">
         <v>2300</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" ht="15.75"/>
     <row r="12" ht="15.75" spans="2:8">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="2" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="F12" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" ht="15.75" spans="2:8">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="22">
+      <c r="B14" s="43">
         <v>45691</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="34">
         <v>2700</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="29">
         <v>45698</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="30">
         <v>4350</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="22">
+      <c r="B15" s="43">
         <v>45695</v>
       </c>
       <c r="C15">
         <v>400</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="F15" s="11">
+      <c r="D15" s="34"/>
+      <c r="F15" s="32">
         <v>45704</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13">
+      <c r="G15" s="33"/>
+      <c r="H15" s="34">
         <v>500</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="22"/>
-      <c r="D16" s="13"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="B16" s="43"/>
+      <c r="D16" s="34"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="22"/>
-      <c r="D17" s="13"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="B17" s="43"/>
+      <c r="D17" s="34"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" ht="15.75" spans="2:8">
-      <c r="B18" s="23"/>
-      <c r="D18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
+      <c r="B18" s="44"/>
+      <c r="D18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" ht="15.75" spans="2:8">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="45">
         <f t="shared" ref="C19:H19" si="1">SUM(C14:C17)</f>
         <v>400</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="28">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="45">
         <f t="shared" si="1"/>
         <v>4350</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="28">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="2:8">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="20">
+      <c r="C20" s="46"/>
+      <c r="D20" s="41">
         <f>D19-C19</f>
         <v>2300</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="40">
         <f>G19-H19</f>
         <v>3850</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3478,7 +3629,7 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -3488,11 +3639,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -3552,4 +3703,311 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="J3:P41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="10:12">
+      <c r="J3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="10:12">
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" ht="15.75" spans="10:12">
+      <c r="J5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="10:12">
+      <c r="J6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="11">
+        <v>179930</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" ht="15.75" spans="10:12">
+      <c r="J7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15">
+        <v>179930</v>
+      </c>
+    </row>
+    <row r="8" spans="10:12">
+      <c r="J8" s="16"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="10:12">
+      <c r="J9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="11">
+        <v>7100</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" ht="15.75" spans="10:12">
+      <c r="J10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="11" spans="10:12">
+      <c r="J11" s="16"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="10:12">
+      <c r="J12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="11">
+        <v>8080</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" ht="15.75" spans="10:12">
+      <c r="J13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="14" spans="10:12">
+      <c r="J14" s="16"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="10:12">
+      <c r="J15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="11">
+        <v>101900</v>
+      </c>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" ht="15.75" spans="10:12">
+      <c r="J16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15">
+        <v>101900</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12">
+      <c r="J17" s="16"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="10:12">
+      <c r="J18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="11">
+        <v>21380</v>
+      </c>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" ht="15.75" spans="10:12">
+      <c r="J19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15">
+        <v>21380</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12">
+      <c r="J20" s="16"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="10:12">
+      <c r="J21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="11">
+        <v>9080</v>
+      </c>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" ht="15.75" spans="10:12">
+      <c r="J22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="26" spans="10:16">
+      <c r="J26" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+    </row>
+    <row r="27" spans="10:16">
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+    </row>
+    <row r="28" spans="10:16">
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="10:16">
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+    </row>
+    <row r="30" spans="10:16">
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="10:16">
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="10:16">
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" spans="10:16">
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+    </row>
+    <row r="34" spans="10:16">
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="10:16">
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="10:16">
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="39" spans="10:16">
+      <c r="J39" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+    </row>
+    <row r="40" spans="10:16">
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+    </row>
+    <row r="41" spans="10:16">
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="J26:P36"/>
+    <mergeCell ref="J39:P41"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>